--- a/partial/sliding_window_results_window_7.xlsx
+++ b/partial/sliding_window_results_window_7.xlsx
@@ -468,13 +468,13 @@
         <v>29.75</v>
       </c>
       <c r="C2" t="n">
-        <v>29.55206922625512</v>
+        <v>29.64127922058105</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1979307737448792</v>
+        <v>-0.1087207794189453</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03917659119524657</v>
+        <v>0.01182020787746296</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.84</v>
       </c>
       <c r="C3" t="n">
-        <v>30.47912178875446</v>
+        <v>29.90331840515137</v>
       </c>
       <c r="D3" t="n">
-        <v>0.639121788754462</v>
+        <v>0.06331840515136378</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4084766608607032</v>
+        <v>0.004009220430912251</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.81</v>
       </c>
       <c r="C4" t="n">
-        <v>30.33429754739949</v>
+        <v>29.90265464782715</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5242975473994882</v>
+        <v>0.09265464782714616</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2748879182091186</v>
+        <v>0.008584883763972481</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.92</v>
       </c>
       <c r="C5" t="n">
-        <v>30.15789938435594</v>
+        <v>29.92182731628418</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2378993843559414</v>
+        <v>0.001827316284177982</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05659611707693592</v>
+        <v>3.339084802422028e-06</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.98</v>
       </c>
       <c r="C6" t="n">
-        <v>29.56797042230956</v>
+        <v>29.99698448181152</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4120295776904364</v>
+        <v>0.01698448181151946</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1697683728917593</v>
+        <v>0.0002884726224058353</v>
       </c>
     </row>
     <row r="7">
@@ -550,16 +550,16 @@
         <v>44</v>
       </c>
       <c r="B7" t="n">
-        <v>30.04</v>
+        <v>30.03999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>29.87083641622381</v>
+        <v>30.15762138366699</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1691635837761893</v>
+        <v>0.1176213836670001</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02861631807600383</v>
+        <v>0.01383478989573965</v>
       </c>
     </row>
     <row r="8">
@@ -567,16 +567,16 @@
         <v>43</v>
       </c>
       <c r="B8" t="n">
-        <v>30.21</v>
+        <v>30.21000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>29.50938272688767</v>
+        <v>30.14980888366699</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7006172731123357</v>
+        <v>-0.06019111633301577</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4908645633833651</v>
+        <v>0.003622970485414638</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.22</v>
       </c>
       <c r="C9" t="n">
-        <v>29.90408689872561</v>
+        <v>30.26547050476074</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3159131012743934</v>
+        <v>0.04547050476074332</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09980108755680515</v>
+        <v>0.002067566803196782</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.38</v>
       </c>
       <c r="C10" t="n">
-        <v>29.81726096736508</v>
+        <v>30.23031425476074</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5627390326349229</v>
+        <v>-0.1496857452392533</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3166752188508888</v>
+        <v>0.02240582232783063</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.44</v>
       </c>
       <c r="C11" t="n">
-        <v>30.47190847918474</v>
+        <v>30.44497489929199</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03190847918473594</v>
+        <v>0.004974899291994461</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001018151043882727</v>
+        <v>2.474962296548699e-05</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.48</v>
       </c>
       <c r="C12" t="n">
-        <v>30.34180917565251</v>
+        <v>30.40680503845215</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1381908243474932</v>
+        <v>-0.07319496154785554</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01909670393383972</v>
+        <v>0.005357502395992051</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.69</v>
       </c>
       <c r="C13" t="n">
-        <v>30.54504415376866</v>
+        <v>30.44501304626465</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1449558462313441</v>
+        <v>-0.2449869537353493</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02101219735664506</v>
+        <v>0.06001860750052617</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.75</v>
       </c>
       <c r="C14" t="n">
-        <v>30.37535326122348</v>
+        <v>30.42711448669434</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3746467387765229</v>
+        <v>-0.3228855133056641</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1403601788758842</v>
+        <v>0.1042550547026622</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.94</v>
       </c>
       <c r="C15" t="n">
-        <v>30.63839908210787</v>
+        <v>30.66121482849121</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3016009178921308</v>
+        <v>-0.2787851715087868</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09096311367337585</v>
+        <v>0.07772117185318367</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.95</v>
       </c>
       <c r="C16" t="n">
-        <v>30.85683821619653</v>
+        <v>30.80583000183105</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0931617838034704</v>
+        <v>-0.1441699981689482</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008679117961444559</v>
+        <v>0.02078498837203452</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.02</v>
       </c>
       <c r="C17" t="n">
-        <v>31.42282016144514</v>
+        <v>31.21635246276855</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4028201614451419</v>
+        <v>0.1963524627685587</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1622640824666902</v>
+        <v>0.03855428963527822</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.12</v>
       </c>
       <c r="C18" t="n">
-        <v>31.74538832666033</v>
+        <v>31.35795402526855</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6253883266603246</v>
+        <v>0.2379540252685501</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3911105591230009</v>
+        <v>0.0566221181415058</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.28</v>
       </c>
       <c r="C19" t="n">
-        <v>31.82016846817308</v>
+        <v>31.45592308044434</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5401684681730785</v>
+        <v>0.1759230804443348</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2917819740084501</v>
+        <v>0.03094893023302389</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.38</v>
       </c>
       <c r="C20" t="n">
-        <v>31.52701370395522</v>
+        <v>31.29449272155762</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1470137039552171</v>
+        <v>-0.08550727844237827</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02161302915063221</v>
+        <v>0.007311494666622407</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.58</v>
       </c>
       <c r="C21" t="n">
-        <v>31.88891343994345</v>
+        <v>31.48099327087402</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3089134399434563</v>
+        <v>-0.09900672912597486</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09542751337769939</v>
+        <v>0.009802332412224158</v>
       </c>
     </row>
     <row r="22">
@@ -805,16 +805,16 @@
         <v>29</v>
       </c>
       <c r="B22" t="n">
-        <v>31.65</v>
+        <v>31.65000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>31.84383637016819</v>
+        <v>32.05437088012695</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1938363701681887</v>
+        <v>0.4043708801269474</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03757253839997906</v>
+        <v>0.1635158086946421</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.88</v>
       </c>
       <c r="C23" t="n">
-        <v>32.53161955139993</v>
+        <v>32.60719680786133</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6516195513999286</v>
+        <v>0.7271968078613327</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4246080397666441</v>
+        <v>0.528815197363712</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.44790752664425</v>
+        <v>32.54343032836914</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1679075266442496</v>
+        <v>0.2634303283691395</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02819293750378938</v>
+        <v>0.06939553790467266</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.45</v>
       </c>
       <c r="C25" t="n">
-        <v>32.56493877496955</v>
+        <v>32.63210678100586</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1149387749695521</v>
+        <v>0.1821067810058565</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01321092199150133</v>
+        <v>0.03316287968831499</v>
       </c>
     </row>
     <row r="26">
@@ -873,16 +873,16 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>32.85</v>
+        <v>32.84999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>32.83110401486227</v>
+        <v>32.83679580688477</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01889598513773194</v>
+        <v>-0.01320419311522869</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003570582543253864</v>
+        <v>0.0001743507158242527</v>
       </c>
     </row>
     <row r="27">
@@ -890,16 +890,16 @@
         <v>24</v>
       </c>
       <c r="B27" t="n">
-        <v>32.9</v>
+        <v>32.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>32.98472376508364</v>
+        <v>33.05073165893555</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08472376508364476</v>
+        <v>0.1507316589355412</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007178116369948624</v>
+        <v>0.02272003300546031</v>
       </c>
     </row>
     <row r="28">
@@ -907,16 +907,16 @@
         <v>23</v>
       </c>
       <c r="B28" t="n">
-        <v>33.1</v>
+        <v>33.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>33.06027237251001</v>
+        <v>32.78688430786133</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03972762748999514</v>
+        <v>-0.3131156921386662</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001578284385983818</v>
+        <v>0.09804143666347598</v>
       </c>
     </row>
     <row r="29">
@@ -924,16 +924,16 @@
         <v>22</v>
       </c>
       <c r="B29" t="n">
-        <v>33.4</v>
+        <v>33.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>33.94366062112429</v>
+        <v>33.60528182983398</v>
       </c>
       <c r="D29" t="n">
-        <v>0.543660621124296</v>
+        <v>0.2052818298339787</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2955668709612553</v>
+        <v>0.04214062965998659</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.7</v>
       </c>
       <c r="C30" t="n">
-        <v>33.88600048284398</v>
+        <v>33.57837295532227</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1860004828439799</v>
+        <v>-0.1216270446777372</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03459617961819365</v>
+        <v>0.01479313799704029</v>
       </c>
     </row>
     <row r="31">
@@ -958,16 +958,16 @@
         <v>20</v>
       </c>
       <c r="B31" t="n">
-        <v>34.1</v>
+        <v>34.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>34.03856700696136</v>
+        <v>33.80495834350586</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.06143299303864325</v>
+        <v>-0.2950416564941349</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00377401263368599</v>
+        <v>0.08704957906680312</v>
       </c>
     </row>
     <row r="32">
@@ -975,16 +975,16 @@
         <v>19</v>
       </c>
       <c r="B32" t="n">
-        <v>34.4</v>
+        <v>34.40000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>33.89030278293831</v>
+        <v>34.3074836730957</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5096972170616922</v>
+        <v>-0.09251632690430256</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2597912530804338</v>
+        <v>0.008559270743863777</v>
       </c>
     </row>
     <row r="33">
@@ -992,16 +992,16 @@
         <v>18</v>
       </c>
       <c r="B33" t="n">
-        <v>34.9</v>
+        <v>34.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>34.49641451513467</v>
+        <v>35.01227951049805</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.4035854848653315</v>
+        <v>0.1122795104980412</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1628812435939847</v>
+        <v>0.01260668847767974</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.3</v>
       </c>
       <c r="C34" t="n">
-        <v>35.58994005158812</v>
+        <v>35.66598129272461</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2899400515881254</v>
+        <v>0.3659812927246122</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08406523351492483</v>
+        <v>0.1339423066243783</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.7</v>
       </c>
       <c r="C35" t="n">
-        <v>36.00345176899923</v>
+        <v>35.98637771606445</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3034517689992313</v>
+        <v>0.2863777160644503</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09208297610876284</v>
+        <v>0.08201219625829091</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.3</v>
       </c>
       <c r="C36" t="n">
-        <v>36.22850760022378</v>
+        <v>35.96036148071289</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.07149239977621846</v>
+        <v>-0.3396385192871065</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005111163225762641</v>
+        <v>0.1153543237835382</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.8</v>
       </c>
       <c r="C37" t="n">
-        <v>37.13218751709188</v>
+        <v>36.60099411010742</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3321875170918815</v>
+        <v>-0.1990058898925753</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1103485465116691</v>
+        <v>0.03960334421193579</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.3</v>
       </c>
       <c r="C38" t="n">
-        <v>37.1886072001539</v>
+        <v>37.27934646606445</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1113927998460937</v>
+        <v>-0.02065353393554403</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0124083558575519</v>
+        <v>0.000426568464026669</v>
       </c>
     </row>
     <row r="39">
@@ -1094,16 +1094,16 @@
         <v>12</v>
       </c>
       <c r="B39" t="n">
-        <v>37.9</v>
+        <v>37.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>38.07902063115112</v>
+        <v>38.10490798950195</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1790206311511255</v>
+        <v>0.2049079895019474</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03204838637774734</v>
+        <v>0.04198728416173021</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.5</v>
       </c>
       <c r="C40" t="n">
-        <v>38.68052565090631</v>
+        <v>38.57924270629883</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1805256509063113</v>
+        <v>0.07924270629882812</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03258951063514739</v>
+        <v>0.006279406501562335</v>
       </c>
     </row>
     <row r="41">
@@ -1128,16 +1128,16 @@
         <v>10</v>
       </c>
       <c r="B41" t="n">
-        <v>38.9</v>
+        <v>38.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>39.05890000262099</v>
+        <v>39.20572280883789</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1589000026209959</v>
+        <v>0.3057228088378849</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02524921083295251</v>
+        <v>0.09346643584372594</v>
       </c>
     </row>
     <row r="42">
@@ -1145,16 +1145,16 @@
         <v>9</v>
       </c>
       <c r="B42" t="n">
-        <v>39.4</v>
+        <v>39.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>39.46814730780111</v>
+        <v>39.69402694702148</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06814730780111233</v>
+        <v>0.2940269470214787</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004644055560539546</v>
+        <v>0.08645184557477144</v>
       </c>
     </row>
     <row r="43">
@@ -1162,16 +1162,16 @@
         <v>8</v>
       </c>
       <c r="B43" t="n">
-        <v>39.9</v>
+        <v>39.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>39.71557728641135</v>
+        <v>39.77173233032227</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1844227135886527</v>
+        <v>-0.1282676696777401</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03401173728740223</v>
+        <v>0.01645259508455784</v>
       </c>
     </row>
     <row r="44">
@@ -1179,16 +1179,16 @@
         <v>7</v>
       </c>
       <c r="B44" t="n">
-        <v>40.1</v>
+        <v>40.09999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>39.75171229721425</v>
+        <v>39.85319900512695</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.348287702785754</v>
+        <v>-0.2468009948730412</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1213043239117778</v>
+        <v>0.0609107310703229</v>
       </c>
     </row>
     <row r="45">
@@ -1196,16 +1196,16 @@
         <v>6</v>
       </c>
       <c r="B45" t="n">
-        <v>40.6</v>
+        <v>40.59999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>39.88865494367155</v>
+        <v>40.23218154907227</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7113450563284474</v>
+        <v>-0.3678184509277287</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5060117891629219</v>
+        <v>0.135290412842874</v>
       </c>
     </row>
     <row r="46">
@@ -1213,16 +1213,16 @@
         <v>5</v>
       </c>
       <c r="B46" t="n">
-        <v>40.9</v>
+        <v>40.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>40.17636941192848</v>
+        <v>40.4200325012207</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.7236305880715221</v>
+        <v>-0.4799674987793026</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5236412279927369</v>
+        <v>0.2303687998844598</v>
       </c>
     </row>
     <row r="47">
@@ -1230,16 +1230,16 @@
         <v>4</v>
       </c>
       <c r="B47" t="n">
-        <v>41.2</v>
+        <v>41.20000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>41.00493381187577</v>
+        <v>40.79880142211914</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1950661881242368</v>
+        <v>-0.4011985778808693</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03805081774932015</v>
+        <v>0.160960298893632</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.5</v>
       </c>
       <c r="C48" t="n">
-        <v>41.2232895644484</v>
+        <v>40.99710464477539</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2767104355515997</v>
+        <v>-0.5028953552246094</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07656866514315601</v>
+        <v>0.252903738306486</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.8</v>
       </c>
       <c r="C49" t="n">
-        <v>41.83429001822083</v>
+        <v>41.71234130859375</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03429001822083677</v>
+        <v>-0.08765869140624716</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001175805349585318</v>
+        <v>0.00768404617905567</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.2</v>
       </c>
       <c r="C50" t="n">
-        <v>42.2899883177875</v>
+        <v>41.72422790527344</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08998831778749405</v>
+        <v>-0.4757720947265653</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008097897338223019</v>
+        <v>0.2263590861205039</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.42184316379691</v>
+        <v>43.96305465698242</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7218431637969118</v>
+        <v>1.263054656982419</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5210575531203353</v>
+        <v>1.595307066524976</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.6918761771196742</v>
+        <v>0.1454766845702764</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>6.625964181312612</v>
+        <v>4.84477354914006</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1325192836262522</v>
+        <v>0.0968954709828012</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_7.xlsx
+++ b/partial/sliding_window_results_window_7.xlsx
@@ -468,13 +468,13 @@
         <v>29.75</v>
       </c>
       <c r="C2" t="n">
-        <v>29.64127922058105</v>
+        <v>29.63905143737793</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1087207794189453</v>
+        <v>-0.1109485626220703</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01182020787746296</v>
+        <v>0.01230958354790346</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.84</v>
       </c>
       <c r="C3" t="n">
-        <v>29.90331840515137</v>
+        <v>29.86602592468262</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06331840515136378</v>
+        <v>0.02602592468261378</v>
       </c>
       <c r="E3" t="n">
-        <v>0.004009220430912251</v>
+        <v>0.000677348755585085</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.81</v>
       </c>
       <c r="C4" t="n">
-        <v>29.90265464782715</v>
+        <v>29.88131523132324</v>
       </c>
       <c r="D4" t="n">
-        <v>0.09265464782714616</v>
+        <v>0.07131523132323991</v>
       </c>
       <c r="E4" t="n">
-        <v>0.008584883763972481</v>
+        <v>0.005085862218687219</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.92</v>
       </c>
       <c r="C5" t="n">
-        <v>29.92182731628418</v>
+        <v>29.9102840423584</v>
       </c>
       <c r="D5" t="n">
-        <v>0.001827316284177982</v>
+        <v>-0.009715957641603268</v>
       </c>
       <c r="E5" t="n">
-        <v>3.339084802422028e-06</v>
+        <v>9.439983289342894e-05</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.98</v>
       </c>
       <c r="C6" t="n">
-        <v>29.99698448181152</v>
+        <v>30.00421714782715</v>
       </c>
       <c r="D6" t="n">
-        <v>0.01698448181151946</v>
+        <v>0.02421714782714446</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002884726224058353</v>
+        <v>0.0005864702488817676</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.03999999999999</v>
       </c>
       <c r="C7" t="n">
-        <v>30.15762138366699</v>
+        <v>30.16158866882324</v>
       </c>
       <c r="D7" t="n">
-        <v>0.1176213836670001</v>
+        <v>0.1215886688232501</v>
       </c>
       <c r="E7" t="n">
-        <v>0.01383478989573965</v>
+        <v>0.01478380438621</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.21000000000001</v>
       </c>
       <c r="C8" t="n">
-        <v>30.14980888366699</v>
+        <v>30.1622142791748</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.06019111633301577</v>
+        <v>-0.04778572082520327</v>
       </c>
       <c r="E8" t="n">
-        <v>0.003622970485414638</v>
+        <v>0.002283475114784266</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.22</v>
       </c>
       <c r="C9" t="n">
-        <v>30.26547050476074</v>
+        <v>30.2697811126709</v>
       </c>
       <c r="D9" t="n">
-        <v>0.04547050476074332</v>
+        <v>0.04978111267089957</v>
       </c>
       <c r="E9" t="n">
-        <v>0.002067566803196782</v>
+        <v>0.002478159178752798</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.38</v>
       </c>
       <c r="C10" t="n">
-        <v>30.23031425476074</v>
+        <v>30.23199272155762</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1496857452392533</v>
+        <v>-0.1480072784423783</v>
       </c>
       <c r="E10" t="n">
-        <v>0.02240582232783063</v>
+        <v>0.02190615447191969</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.44</v>
       </c>
       <c r="C11" t="n">
-        <v>30.44497489929199</v>
+        <v>30.42409324645996</v>
       </c>
       <c r="D11" t="n">
-        <v>0.004974899291994461</v>
+        <v>-0.01590675354003679</v>
       </c>
       <c r="E11" t="n">
-        <v>2.474962296548699e-05</v>
+        <v>0.0002530248081834729</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.48</v>
       </c>
       <c r="C12" t="n">
-        <v>30.40680503845215</v>
+        <v>30.39916801452637</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.07319496154785554</v>
+        <v>-0.08083198547363679</v>
       </c>
       <c r="E12" t="n">
-        <v>0.005357502395992051</v>
+        <v>0.006533809875610229</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.69</v>
       </c>
       <c r="C13" t="n">
-        <v>30.44501304626465</v>
+        <v>30.44005393981934</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2449869537353493</v>
+        <v>-0.2499460601806618</v>
       </c>
       <c r="E13" t="n">
-        <v>0.06001860750052617</v>
+        <v>0.062473032999835</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.75</v>
       </c>
       <c r="C14" t="n">
-        <v>30.42711448669434</v>
+        <v>30.41081809997559</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3228855133056641</v>
+        <v>-0.3391819000244141</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1042550547026622</v>
+        <v>0.1150443613041716</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.94</v>
       </c>
       <c r="C15" t="n">
-        <v>30.66121482849121</v>
+        <v>30.65718650817871</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2787851715087868</v>
+        <v>-0.2828134918212868</v>
       </c>
       <c r="E15" t="n">
-        <v>0.07772117185318367</v>
+        <v>0.07998347115614905</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.95</v>
       </c>
       <c r="C16" t="n">
-        <v>30.80583000183105</v>
+        <v>30.80323600769043</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1441699981689482</v>
+        <v>-0.1467639923095732</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02078498837203452</v>
+        <v>0.02153966943864445</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.02</v>
       </c>
       <c r="C17" t="n">
-        <v>31.21635246276855</v>
+        <v>31.2135066986084</v>
       </c>
       <c r="D17" t="n">
-        <v>0.1963524627685587</v>
+        <v>0.1935066986084024</v>
       </c>
       <c r="E17" t="n">
-        <v>0.03855428963527822</v>
+        <v>0.03744484240632309</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.12</v>
       </c>
       <c r="C18" t="n">
-        <v>31.35795402526855</v>
+        <v>31.34857749938965</v>
       </c>
       <c r="D18" t="n">
-        <v>0.2379540252685501</v>
+        <v>0.2285774993896439</v>
       </c>
       <c r="E18" t="n">
-        <v>0.0566221181415058</v>
+        <v>0.05224767322722265</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.28</v>
       </c>
       <c r="C19" t="n">
-        <v>31.45592308044434</v>
+        <v>31.45941734313965</v>
       </c>
       <c r="D19" t="n">
-        <v>0.1759230804443348</v>
+        <v>0.1794173431396473</v>
       </c>
       <c r="E19" t="n">
-        <v>0.03094893023302389</v>
+        <v>0.03219058301928995</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.38</v>
       </c>
       <c r="C20" t="n">
-        <v>31.29449272155762</v>
+        <v>31.31288719177246</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.08550727844237827</v>
+        <v>-0.06711280822753452</v>
       </c>
       <c r="E20" t="n">
-        <v>0.007311494666622407</v>
+        <v>0.004504129028185824</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.58</v>
       </c>
       <c r="C21" t="n">
-        <v>31.48099327087402</v>
+        <v>31.49408531188965</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.09900672912597486</v>
+        <v>-0.08591468811034986</v>
       </c>
       <c r="E21" t="n">
-        <v>0.009802332412224158</v>
+        <v>0.007381333633098691</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.65000000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>32.05437088012695</v>
+        <v>32.0507698059082</v>
       </c>
       <c r="D22" t="n">
-        <v>0.4043708801269474</v>
+        <v>0.4007698059081974</v>
       </c>
       <c r="E22" t="n">
-        <v>0.1635158086946421</v>
+        <v>0.1606164373276943</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.88</v>
       </c>
       <c r="C23" t="n">
-        <v>32.60719680786133</v>
+        <v>32.5708122253418</v>
       </c>
       <c r="D23" t="n">
-        <v>0.7271968078613327</v>
+        <v>0.6908122253418014</v>
       </c>
       <c r="E23" t="n">
-        <v>0.528815197363712</v>
+        <v>0.4772215306816918</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.54343032836914</v>
+        <v>32.49737167358398</v>
       </c>
       <c r="D24" t="n">
-        <v>0.2634303283691395</v>
+        <v>0.2173716735839832</v>
       </c>
       <c r="E24" t="n">
-        <v>0.06939553790467266</v>
+        <v>0.04725044447670176</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.45</v>
       </c>
       <c r="C25" t="n">
-        <v>32.63210678100586</v>
+        <v>32.5689582824707</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1821067810058565</v>
+        <v>0.1189582824707003</v>
       </c>
       <c r="E25" t="n">
-        <v>0.03316287968831499</v>
+        <v>0.01415107296837892</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.84999999999999</v>
       </c>
       <c r="C26" t="n">
-        <v>32.83679580688477</v>
+        <v>32.76427841186523</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01320419311522869</v>
+        <v>-0.08572158813475994</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0001743507158242527</v>
+        <v>0.007348190672345416</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.90000000000001</v>
       </c>
       <c r="C27" t="n">
-        <v>33.05073165893555</v>
+        <v>32.98527908325195</v>
       </c>
       <c r="D27" t="n">
-        <v>0.1507316589355412</v>
+        <v>0.08527908325194744</v>
       </c>
       <c r="E27" t="n">
-        <v>0.02272003300546031</v>
+        <v>0.007272522040292583</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.09999999999999</v>
       </c>
       <c r="C28" t="n">
-        <v>32.78688430786133</v>
+        <v>32.76009750366211</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3131156921386662</v>
+        <v>-0.3399024963378849</v>
       </c>
       <c r="E28" t="n">
-        <v>0.09804143666347598</v>
+        <v>0.1155337070167259</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.40000000000001</v>
       </c>
       <c r="C29" t="n">
-        <v>33.60528182983398</v>
+        <v>33.58666610717773</v>
       </c>
       <c r="D29" t="n">
-        <v>0.2052818298339787</v>
+        <v>0.1866661071777287</v>
       </c>
       <c r="E29" t="n">
-        <v>0.04214062965998659</v>
+        <v>0.03484423556888729</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.7</v>
       </c>
       <c r="C30" t="n">
-        <v>33.57837295532227</v>
+        <v>33.58568954467773</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1216270446777372</v>
+        <v>-0.1143104553222685</v>
       </c>
       <c r="E30" t="n">
-        <v>0.01479313799704029</v>
+        <v>0.01306688019598434</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.09999999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>33.80495834350586</v>
+        <v>33.81261825561523</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2950416564941349</v>
+        <v>-0.2873817443847599</v>
       </c>
       <c r="E31" t="n">
-        <v>0.08704957906680312</v>
+        <v>0.08258826700562751</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.40000000000001</v>
       </c>
       <c r="C32" t="n">
-        <v>34.3074836730957</v>
+        <v>34.35049819946289</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.09251632690430256</v>
+        <v>-0.04950180053711506</v>
       </c>
       <c r="E32" t="n">
-        <v>0.008559270743863777</v>
+        <v>0.002450428256416325</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.90000000000001</v>
       </c>
       <c r="C33" t="n">
-        <v>35.01227951049805</v>
+        <v>35.05210494995117</v>
       </c>
       <c r="D33" t="n">
-        <v>0.1122795104980412</v>
+        <v>0.1521049499511662</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01260668847767974</v>
+        <v>0.02313591579964677</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.3</v>
       </c>
       <c r="C34" t="n">
-        <v>35.66598129272461</v>
+        <v>35.6954460144043</v>
       </c>
       <c r="D34" t="n">
-        <v>0.3659812927246122</v>
+        <v>0.3954460144042997</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1339423066243783</v>
+        <v>0.1563775503082456</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.7</v>
       </c>
       <c r="C35" t="n">
-        <v>35.98637771606445</v>
+        <v>36.01643753051758</v>
       </c>
       <c r="D35" t="n">
-        <v>0.2863777160644503</v>
+        <v>0.3164375305175753</v>
       </c>
       <c r="E35" t="n">
-        <v>0.08201219625829091</v>
+        <v>0.1001327107200614</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.3</v>
       </c>
       <c r="C36" t="n">
-        <v>35.96036148071289</v>
+        <v>35.94208145141602</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3396385192871065</v>
+        <v>-0.3579185485839815</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1153543237835382</v>
+        <v>0.1281056874204639</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.8</v>
       </c>
       <c r="C37" t="n">
-        <v>36.60099411010742</v>
+        <v>36.58803176879883</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1990058898925753</v>
+        <v>-0.211968231201169</v>
       </c>
       <c r="E37" t="n">
-        <v>0.03960334421193579</v>
+        <v>0.04493053103855225</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.3</v>
       </c>
       <c r="C38" t="n">
-        <v>37.27934646606445</v>
+        <v>37.3122444152832</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.02065353393554403</v>
+        <v>0.01224441528320597</v>
       </c>
       <c r="E38" t="n">
-        <v>0.000426568464026669</v>
+        <v>0.0001499257056276079</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.90000000000001</v>
       </c>
       <c r="C39" t="n">
-        <v>38.10490798950195</v>
+        <v>38.14188003540039</v>
       </c>
       <c r="D39" t="n">
-        <v>0.2049079895019474</v>
+        <v>0.2418800354003849</v>
       </c>
       <c r="E39" t="n">
-        <v>0.04198728416173021</v>
+        <v>0.05850595152529147</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.5</v>
       </c>
       <c r="C40" t="n">
-        <v>38.57924270629883</v>
+        <v>38.61196517944336</v>
       </c>
       <c r="D40" t="n">
-        <v>0.07924270629882812</v>
+        <v>0.1119651794433594</v>
       </c>
       <c r="E40" t="n">
-        <v>0.006279406501562335</v>
+        <v>0.01253620140778366</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.90000000000001</v>
       </c>
       <c r="C41" t="n">
-        <v>39.20572280883789</v>
+        <v>39.23119735717773</v>
       </c>
       <c r="D41" t="n">
-        <v>0.3057228088378849</v>
+        <v>0.3311973571777287</v>
       </c>
       <c r="E41" t="n">
-        <v>0.09346643584372594</v>
+        <v>0.109691689401512</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.40000000000001</v>
       </c>
       <c r="C42" t="n">
-        <v>39.69402694702148</v>
+        <v>39.71429824829102</v>
       </c>
       <c r="D42" t="n">
-        <v>0.2940269470214787</v>
+        <v>0.3142982482910099</v>
       </c>
       <c r="E42" t="n">
-        <v>0.08645184557477144</v>
+        <v>0.09878338887879733</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.90000000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>39.77173233032227</v>
+        <v>39.80111312866211</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1282676696777401</v>
+        <v>-0.09888687133789631</v>
       </c>
       <c r="E43" t="n">
-        <v>0.01645259508455784</v>
+        <v>0.009778613322997658</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.09999999999999</v>
       </c>
       <c r="C44" t="n">
-        <v>39.85319900512695</v>
+        <v>39.83406448364258</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2468009948730412</v>
+        <v>-0.2659355163574162</v>
       </c>
       <c r="E44" t="n">
-        <v>0.0609107310703229</v>
+        <v>0.07072169886028558</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.59999999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>40.23218154907227</v>
+        <v>40.21542739868164</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.3678184509277287</v>
+        <v>-0.3845726013183537</v>
       </c>
       <c r="E45" t="n">
-        <v>0.135290412842874</v>
+        <v>0.1478960856847654</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.90000000000001</v>
       </c>
       <c r="C46" t="n">
-        <v>40.4200325012207</v>
+        <v>40.40191268920898</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.4799674987793026</v>
+        <v>-0.4980873107910213</v>
       </c>
       <c r="E46" t="n">
-        <v>0.2303687998844598</v>
+        <v>0.2480909691710315</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.20000000000001</v>
       </c>
       <c r="C47" t="n">
-        <v>40.79880142211914</v>
+        <v>40.78643417358398</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.4011985778808693</v>
+        <v>-0.4135658264160256</v>
       </c>
       <c r="E47" t="n">
-        <v>0.160960298893632</v>
+        <v>0.1710366927791702</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.5</v>
       </c>
       <c r="C48" t="n">
-        <v>40.99710464477539</v>
+        <v>40.98739242553711</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.5028953552246094</v>
+        <v>-0.5126075744628906</v>
       </c>
       <c r="E48" t="n">
-        <v>0.252903738306486</v>
+        <v>0.262766525396728</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.8</v>
       </c>
       <c r="C49" t="n">
-        <v>41.71234130859375</v>
+        <v>41.71667861938477</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.08765869140624716</v>
+        <v>-0.08332138061523153</v>
       </c>
       <c r="E49" t="n">
-        <v>0.00768404617905567</v>
+        <v>0.006942452467628281</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.2</v>
       </c>
       <c r="C50" t="n">
-        <v>41.72422790527344</v>
+        <v>41.72091674804688</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.4757720947265653</v>
+        <v>-0.4790832519531278</v>
       </c>
       <c r="E50" t="n">
-        <v>0.2263590861205039</v>
+        <v>0.2295207623019842</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.96305465698242</v>
+        <v>43.97809219360352</v>
       </c>
       <c r="D51" t="n">
-        <v>1.263054656982419</v>
+        <v>1.278092193603513</v>
       </c>
       <c r="E51" t="n">
-        <v>1.595307066524976</v>
+        <v>1.633519655350239</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.1454766845702764</v>
+        <v>-0.01974166870120797</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>4.84477354914006</v>
+        <v>4.95476791240389</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.0968954709828012</v>
+        <v>0.09909535824807779</v>
       </c>
     </row>
   </sheetData>

--- a/partial/sliding_window_results_window_7.xlsx
+++ b/partial/sliding_window_results_window_7.xlsx
@@ -468,13 +468,13 @@
         <v>29.75</v>
       </c>
       <c r="C2" t="n">
-        <v>29.55206922625512</v>
+        <v>29.58759074234123</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1979307737448792</v>
+        <v>-0.1624092576587692</v>
       </c>
       <c r="E2" t="n">
-        <v>0.03917659119524657</v>
+        <v>0.02637676697327249</v>
       </c>
     </row>
     <row r="3">
@@ -485,13 +485,13 @@
         <v>29.84</v>
       </c>
       <c r="C3" t="n">
-        <v>30.47912178875446</v>
+        <v>30.18283030166088</v>
       </c>
       <c r="D3" t="n">
-        <v>0.639121788754462</v>
+        <v>0.3428303016608787</v>
       </c>
       <c r="E3" t="n">
-        <v>0.4084766608607032</v>
+        <v>0.1175326157368891</v>
       </c>
     </row>
     <row r="4">
@@ -502,13 +502,13 @@
         <v>29.81</v>
       </c>
       <c r="C4" t="n">
-        <v>30.33429754739949</v>
+        <v>30.05240729647354</v>
       </c>
       <c r="D4" t="n">
-        <v>0.5242975473994882</v>
+        <v>0.2424072964735444</v>
       </c>
       <c r="E4" t="n">
-        <v>0.2748879182091186</v>
+        <v>0.05876129738361286</v>
       </c>
     </row>
     <row r="5">
@@ -519,13 +519,13 @@
         <v>29.92</v>
       </c>
       <c r="C5" t="n">
-        <v>30.15789938435594</v>
+        <v>29.8008296316535</v>
       </c>
       <c r="D5" t="n">
-        <v>0.2378993843559414</v>
+        <v>-0.1191703683464986</v>
       </c>
       <c r="E5" t="n">
-        <v>0.05659611707693592</v>
+        <v>0.01420157669184016</v>
       </c>
     </row>
     <row r="6">
@@ -536,13 +536,13 @@
         <v>29.98</v>
       </c>
       <c r="C6" t="n">
-        <v>29.56797042230956</v>
+        <v>29.81086508372359</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4120295776904364</v>
+        <v>-0.1691349162764055</v>
       </c>
       <c r="E6" t="n">
-        <v>0.1697683728917593</v>
+        <v>0.02860661990382671</v>
       </c>
     </row>
     <row r="7">
@@ -553,13 +553,13 @@
         <v>30.04</v>
       </c>
       <c r="C7" t="n">
-        <v>29.87083641622381</v>
+        <v>29.8588191652655</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1691635837761893</v>
+        <v>-0.1811808347345014</v>
       </c>
       <c r="E7" t="n">
-        <v>0.02861631807600383</v>
+        <v>0.03282649487509071</v>
       </c>
     </row>
     <row r="8">
@@ -570,13 +570,13 @@
         <v>30.21</v>
       </c>
       <c r="C8" t="n">
-        <v>29.50938272688767</v>
+        <v>29.96757500962112</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.7006172731123357</v>
+        <v>-0.2424249903788791</v>
       </c>
       <c r="E8" t="n">
-        <v>0.4908645633833651</v>
+        <v>0.05876987596019963</v>
       </c>
     </row>
     <row r="9">
@@ -587,13 +587,13 @@
         <v>30.22</v>
       </c>
       <c r="C9" t="n">
-        <v>29.90408689872561</v>
+        <v>30.10526514425146</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3159131012743934</v>
+        <v>-0.1147348557485373</v>
       </c>
       <c r="E9" t="n">
-        <v>0.09980108755680515</v>
+        <v>0.01316408712363765</v>
       </c>
     </row>
     <row r="10">
@@ -604,13 +604,13 @@
         <v>30.38</v>
       </c>
       <c r="C10" t="n">
-        <v>29.81726096736508</v>
+        <v>30.16667345311208</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5627390326349229</v>
+        <v>-0.2133265468879237</v>
       </c>
       <c r="E10" t="n">
-        <v>0.3166752188508888</v>
+        <v>0.04550821560712553</v>
       </c>
     </row>
     <row r="11">
@@ -621,13 +621,13 @@
         <v>30.44</v>
       </c>
       <c r="C11" t="n">
-        <v>30.47190847918474</v>
+        <v>30.45523101141733</v>
       </c>
       <c r="D11" t="n">
-        <v>0.03190847918473594</v>
+        <v>0.01523101141732397</v>
       </c>
       <c r="E11" t="n">
-        <v>0.001018151043882727</v>
+        <v>0.0002319837087946531</v>
       </c>
     </row>
     <row r="12">
@@ -638,13 +638,13 @@
         <v>30.48</v>
       </c>
       <c r="C12" t="n">
-        <v>30.34180917565251</v>
+        <v>30.47076606092922</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1381908243474932</v>
+        <v>-0.009233939070778518</v>
       </c>
       <c r="E12" t="n">
-        <v>0.01909670393383972</v>
+        <v>8.526563076285005e-05</v>
       </c>
     </row>
     <row r="13">
@@ -655,13 +655,13 @@
         <v>30.69</v>
       </c>
       <c r="C13" t="n">
-        <v>30.54504415376866</v>
+        <v>30.43801446389514</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1449558462313441</v>
+        <v>-0.2519855361048577</v>
       </c>
       <c r="E13" t="n">
-        <v>0.02101219735664506</v>
+        <v>0.06349671040605256</v>
       </c>
     </row>
     <row r="14">
@@ -672,13 +672,13 @@
         <v>30.75</v>
       </c>
       <c r="C14" t="n">
-        <v>30.37535326122348</v>
+        <v>30.69975840814894</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3746467387765229</v>
+        <v>-0.05024159185105859</v>
       </c>
       <c r="E14" t="n">
-        <v>0.1403601788758842</v>
+        <v>0.002524217551728357</v>
       </c>
     </row>
     <row r="15">
@@ -689,13 +689,13 @@
         <v>30.94</v>
       </c>
       <c r="C15" t="n">
-        <v>30.63839908210787</v>
+        <v>30.82994133128413</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3016009178921308</v>
+        <v>-0.1100586687158724</v>
       </c>
       <c r="E15" t="n">
-        <v>0.09096311367337585</v>
+        <v>0.01211291055951016</v>
       </c>
     </row>
     <row r="16">
@@ -706,13 +706,13 @@
         <v>30.95</v>
       </c>
       <c r="C16" t="n">
-        <v>30.85683821619653</v>
+        <v>30.96543978898074</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.0931617838034704</v>
+        <v>0.01543978898073917</v>
       </c>
       <c r="E16" t="n">
-        <v>0.008679117961444559</v>
+        <v>0.0002383870837697546</v>
       </c>
     </row>
     <row r="17">
@@ -723,13 +723,13 @@
         <v>31.02</v>
       </c>
       <c r="C17" t="n">
-        <v>31.42282016144514</v>
+        <v>31.14081628343929</v>
       </c>
       <c r="D17" t="n">
-        <v>0.4028201614451419</v>
+        <v>0.120816283439293</v>
       </c>
       <c r="E17" t="n">
-        <v>0.1622640824666902</v>
+        <v>0.01459657434408357</v>
       </c>
     </row>
     <row r="18">
@@ -740,13 +740,13 @@
         <v>31.12</v>
       </c>
       <c r="C18" t="n">
-        <v>31.74538832666033</v>
+        <v>31.21232837632543</v>
       </c>
       <c r="D18" t="n">
-        <v>0.6253883266603246</v>
+        <v>0.09232837632543323</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3911105591230009</v>
+        <v>0.008524529074890819</v>
       </c>
     </row>
     <row r="19">
@@ -757,13 +757,13 @@
         <v>31.28</v>
       </c>
       <c r="C19" t="n">
-        <v>31.82016846817308</v>
+        <v>31.04908220229241</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5401684681730785</v>
+        <v>-0.2309177977075869</v>
       </c>
       <c r="E19" t="n">
-        <v>0.2917819740084501</v>
+        <v>0.05332302929812203</v>
       </c>
     </row>
     <row r="20">
@@ -774,13 +774,13 @@
         <v>31.38</v>
       </c>
       <c r="C20" t="n">
-        <v>31.52701370395522</v>
+        <v>30.83156346787992</v>
       </c>
       <c r="D20" t="n">
-        <v>0.1470137039552171</v>
+        <v>-0.5484365321200748</v>
       </c>
       <c r="E20" t="n">
-        <v>0.02161302915063221</v>
+        <v>0.3007826297638939</v>
       </c>
     </row>
     <row r="21">
@@ -791,13 +791,13 @@
         <v>31.58</v>
       </c>
       <c r="C21" t="n">
-        <v>31.88891343994345</v>
+        <v>31.05406723183888</v>
       </c>
       <c r="D21" t="n">
-        <v>0.3089134399434563</v>
+        <v>-0.5259327681611232</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09542751337769939</v>
+        <v>0.2766052766256218</v>
       </c>
     </row>
     <row r="22">
@@ -808,13 +808,13 @@
         <v>31.65</v>
       </c>
       <c r="C22" t="n">
-        <v>31.84383637016819</v>
+        <v>31.59665854667251</v>
       </c>
       <c r="D22" t="n">
-        <v>0.1938363701681887</v>
+        <v>-0.05334145332748363</v>
       </c>
       <c r="E22" t="n">
-        <v>0.03757253839997906</v>
+        <v>0.002845310643088115</v>
       </c>
     </row>
     <row r="23">
@@ -825,13 +825,13 @@
         <v>31.88</v>
       </c>
       <c r="C23" t="n">
-        <v>32.53161955139993</v>
+        <v>32.49295279257779</v>
       </c>
       <c r="D23" t="n">
-        <v>0.6516195513999286</v>
+        <v>0.61295279257779</v>
       </c>
       <c r="E23" t="n">
-        <v>0.4246080397666441</v>
+        <v>0.3757111259289113</v>
       </c>
     </row>
     <row r="24">
@@ -842,13 +842,13 @@
         <v>32.28</v>
       </c>
       <c r="C24" t="n">
-        <v>32.44790752664425</v>
+        <v>32.51761548091525</v>
       </c>
       <c r="D24" t="n">
-        <v>0.1679075266442496</v>
+        <v>0.2376154809152453</v>
       </c>
       <c r="E24" t="n">
-        <v>0.02819293750378938</v>
+        <v>0.05646111677058331</v>
       </c>
     </row>
     <row r="25">
@@ -859,13 +859,13 @@
         <v>32.45</v>
       </c>
       <c r="C25" t="n">
-        <v>32.56493877496955</v>
+        <v>32.75503165065629</v>
       </c>
       <c r="D25" t="n">
-        <v>0.1149387749695521</v>
+        <v>0.3050316506562822</v>
       </c>
       <c r="E25" t="n">
-        <v>0.01321092199150133</v>
+        <v>0.09304430790209621</v>
       </c>
     </row>
     <row r="26">
@@ -876,13 +876,13 @@
         <v>32.85</v>
       </c>
       <c r="C26" t="n">
-        <v>32.83110401486227</v>
+        <v>32.96116689884062</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.01889598513773194</v>
+        <v>0.1111668988406223</v>
       </c>
       <c r="E26" t="n">
-        <v>0.0003570582543253864</v>
+        <v>0.01235807939784114</v>
       </c>
     </row>
     <row r="27">
@@ -893,13 +893,13 @@
         <v>32.9</v>
       </c>
       <c r="C27" t="n">
-        <v>32.98472376508364</v>
+        <v>33.02125648673261</v>
       </c>
       <c r="D27" t="n">
-        <v>0.08472376508364476</v>
+        <v>0.1212564867326122</v>
       </c>
       <c r="E27" t="n">
-        <v>0.007178116369948624</v>
+        <v>0.01470313557473617</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>33.1</v>
       </c>
       <c r="C28" t="n">
-        <v>33.06027237251001</v>
+        <v>33.17862983298771</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.03972762748999514</v>
+        <v>0.07862983298770843</v>
       </c>
       <c r="E28" t="n">
-        <v>0.001578284385983818</v>
+        <v>0.00618265063567492</v>
       </c>
     </row>
     <row r="29">
@@ -927,13 +927,13 @@
         <v>33.4</v>
       </c>
       <c r="C29" t="n">
-        <v>33.94366062112429</v>
+        <v>33.54432577702764</v>
       </c>
       <c r="D29" t="n">
-        <v>0.543660621124296</v>
+        <v>0.144325777027646</v>
       </c>
       <c r="E29" t="n">
-        <v>0.2955668709612553</v>
+        <v>0.0208299299146338</v>
       </c>
     </row>
     <row r="30">
@@ -944,13 +944,13 @@
         <v>33.7</v>
       </c>
       <c r="C30" t="n">
-        <v>33.88600048284398</v>
+        <v>33.59484823058081</v>
       </c>
       <c r="D30" t="n">
-        <v>0.1860004828439799</v>
+        <v>-0.1051517694191944</v>
       </c>
       <c r="E30" t="n">
-        <v>0.03459617961819365</v>
+        <v>0.01105689461198742</v>
       </c>
     </row>
     <row r="31">
@@ -961,13 +961,13 @@
         <v>34.1</v>
       </c>
       <c r="C31" t="n">
-        <v>34.03856700696136</v>
+        <v>33.6974953360889</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.06143299303864325</v>
+        <v>-0.4025046639111025</v>
       </c>
       <c r="E31" t="n">
-        <v>0.00377401263368599</v>
+        <v>0.1620100044701896</v>
       </c>
     </row>
     <row r="32">
@@ -978,13 +978,13 @@
         <v>34.4</v>
       </c>
       <c r="C32" t="n">
-        <v>33.89030278293831</v>
+        <v>34.2781710818468</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.5096972170616922</v>
+        <v>-0.1218289181531986</v>
       </c>
       <c r="E32" t="n">
-        <v>0.2597912530804338</v>
+        <v>0.01484228529837877</v>
       </c>
     </row>
     <row r="33">
@@ -995,13 +995,13 @@
         <v>34.9</v>
       </c>
       <c r="C33" t="n">
-        <v>34.49641451513467</v>
+        <v>34.59026156137988</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.4035854848653315</v>
+        <v>-0.3097384386201156</v>
       </c>
       <c r="E33" t="n">
-        <v>0.1628812435939847</v>
+        <v>0.09593790035882714</v>
       </c>
     </row>
     <row r="34">
@@ -1012,13 +1012,13 @@
         <v>35.3</v>
       </c>
       <c r="C34" t="n">
-        <v>35.58994005158812</v>
+        <v>35.69277273257615</v>
       </c>
       <c r="D34" t="n">
-        <v>0.2899400515881254</v>
+        <v>0.3927727325761481</v>
       </c>
       <c r="E34" t="n">
-        <v>0.08406523351492483</v>
+        <v>0.1542704194553343</v>
       </c>
     </row>
     <row r="35">
@@ -1029,13 +1029,13 @@
         <v>35.7</v>
       </c>
       <c r="C35" t="n">
-        <v>36.00345176899923</v>
+        <v>35.95596127809328</v>
       </c>
       <c r="D35" t="n">
-        <v>0.3034517689992313</v>
+        <v>0.2559612780932738</v>
       </c>
       <c r="E35" t="n">
-        <v>0.09208297610876284</v>
+        <v>0.06551617588314226</v>
       </c>
     </row>
     <row r="36">
@@ -1046,13 +1046,13 @@
         <v>36.3</v>
       </c>
       <c r="C36" t="n">
-        <v>36.22850760022378</v>
+        <v>36.34356418676805</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.07149239977621846</v>
+        <v>0.04356418676805163</v>
       </c>
       <c r="E36" t="n">
-        <v>0.005111163225762641</v>
+        <v>0.001897838368761684</v>
       </c>
     </row>
     <row r="37">
@@ -1063,13 +1063,13 @@
         <v>36.8</v>
       </c>
       <c r="C37" t="n">
-        <v>37.13218751709188</v>
+        <v>36.87894717070319</v>
       </c>
       <c r="D37" t="n">
-        <v>0.3321875170918815</v>
+        <v>0.07894717070319501</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1103485465116691</v>
+        <v>0.006232655762039413</v>
       </c>
     </row>
     <row r="38">
@@ -1080,13 +1080,13 @@
         <v>37.3</v>
       </c>
       <c r="C38" t="n">
-        <v>37.1886072001539</v>
+        <v>37.02797098788045</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1113927998460937</v>
+        <v>-0.2720290121195461</v>
       </c>
       <c r="E38" t="n">
-        <v>0.0124083558575519</v>
+        <v>0.07399978343473616</v>
       </c>
     </row>
     <row r="39">
@@ -1097,13 +1097,13 @@
         <v>37.9</v>
       </c>
       <c r="C39" t="n">
-        <v>38.07902063115112</v>
+        <v>37.90215637364533</v>
       </c>
       <c r="D39" t="n">
-        <v>0.1790206311511255</v>
+        <v>0.002156373645327392</v>
       </c>
       <c r="E39" t="n">
-        <v>0.03204838637774734</v>
+        <v>4.649947298262544e-06</v>
       </c>
     </row>
     <row r="40">
@@ -1114,13 +1114,13 @@
         <v>38.5</v>
       </c>
       <c r="C40" t="n">
-        <v>38.68052565090631</v>
+        <v>38.58213526225354</v>
       </c>
       <c r="D40" t="n">
-        <v>0.1805256509063113</v>
+        <v>0.08213526225353718</v>
       </c>
       <c r="E40" t="n">
-        <v>0.03258951063514739</v>
+        <v>0.006746201305457329</v>
       </c>
     </row>
     <row r="41">
@@ -1131,13 +1131,13 @@
         <v>38.9</v>
       </c>
       <c r="C41" t="n">
-        <v>39.05890000262099</v>
+        <v>39.10436487970355</v>
       </c>
       <c r="D41" t="n">
-        <v>0.1589000026209959</v>
+        <v>0.2043648797035473</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02524921083295251</v>
+        <v>0.04176500405624537</v>
       </c>
     </row>
     <row r="42">
@@ -1148,13 +1148,13 @@
         <v>39.4</v>
       </c>
       <c r="C42" t="n">
-        <v>39.46814730780111</v>
+        <v>39.423575650698</v>
       </c>
       <c r="D42" t="n">
-        <v>0.06814730780111233</v>
+        <v>0.02357565069799961</v>
       </c>
       <c r="E42" t="n">
-        <v>0.004644055560539546</v>
+        <v>0.0005558113058340893</v>
       </c>
     </row>
     <row r="43">
@@ -1165,13 +1165,13 @@
         <v>39.9</v>
       </c>
       <c r="C43" t="n">
-        <v>39.71557728641135</v>
+        <v>39.69720863308636</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1844227135886527</v>
+        <v>-0.2027913669136368</v>
       </c>
       <c r="E43" t="n">
-        <v>0.03401173728740223</v>
+        <v>0.04112433849470125</v>
       </c>
     </row>
     <row r="44">
@@ -1182,13 +1182,13 @@
         <v>40.1</v>
       </c>
       <c r="C44" t="n">
-        <v>39.75171229721425</v>
+        <v>39.75404246321752</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.348287702785754</v>
+        <v>-0.3459575367824783</v>
       </c>
       <c r="E44" t="n">
-        <v>0.1213043239117778</v>
+        <v>0.1196866172565998</v>
       </c>
     </row>
     <row r="45">
@@ -1199,13 +1199,13 @@
         <v>40.6</v>
       </c>
       <c r="C45" t="n">
-        <v>39.88865494367155</v>
+        <v>39.89197518924603</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.7113450563284474</v>
+        <v>-0.7080248107539688</v>
       </c>
       <c r="E45" t="n">
-        <v>0.5060117891629219</v>
+        <v>0.5012991326431934</v>
       </c>
     </row>
     <row r="46">
@@ -1216,13 +1216,13 @@
         <v>40.9</v>
       </c>
       <c r="C46" t="n">
-        <v>40.17636941192848</v>
+        <v>40.18348844285919</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.7236305880715221</v>
+        <v>-0.7165115571408123</v>
       </c>
       <c r="E46" t="n">
-        <v>0.5236412279927369</v>
+        <v>0.5133888115163515</v>
       </c>
     </row>
     <row r="47">
@@ -1233,13 +1233,13 @@
         <v>41.2</v>
       </c>
       <c r="C47" t="n">
-        <v>41.00493381187577</v>
+        <v>41.19773897167246</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1950661881242368</v>
+        <v>-0.002261028327538384</v>
       </c>
       <c r="E47" t="n">
-        <v>0.03805081774932015</v>
+        <v>5.11224909793102e-06</v>
       </c>
     </row>
     <row r="48">
@@ -1250,13 +1250,13 @@
         <v>41.5</v>
       </c>
       <c r="C48" t="n">
-        <v>41.2232895644484</v>
+        <v>41.27961779414809</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.2767104355515997</v>
+        <v>-0.2203822058519123</v>
       </c>
       <c r="E48" t="n">
-        <v>0.07656866514315601</v>
+        <v>0.04856831665615463</v>
       </c>
     </row>
     <row r="49">
@@ -1267,13 +1267,13 @@
         <v>41.8</v>
       </c>
       <c r="C49" t="n">
-        <v>41.83429001822083</v>
+        <v>41.72409164356247</v>
       </c>
       <c r="D49" t="n">
-        <v>0.03429001822083677</v>
+        <v>-0.07590835643753024</v>
       </c>
       <c r="E49" t="n">
-        <v>0.001175805349585318</v>
+        <v>0.00576207857704714</v>
       </c>
     </row>
     <row r="50">
@@ -1284,13 +1284,13 @@
         <v>42.2</v>
       </c>
       <c r="C50" t="n">
-        <v>42.2899883177875</v>
+        <v>42.39997101360544</v>
       </c>
       <c r="D50" t="n">
-        <v>0.08998831778749405</v>
+        <v>0.1999710136054347</v>
       </c>
       <c r="E50" t="n">
-        <v>0.008097897338223019</v>
+        <v>0.03998840628238494</v>
       </c>
     </row>
     <row r="51">
@@ -1301,13 +1301,13 @@
         <v>42.7</v>
       </c>
       <c r="C51" t="n">
-        <v>43.42184316379691</v>
+        <v>43.53406211122057</v>
       </c>
       <c r="D51" t="n">
-        <v>0.7218431637969118</v>
+        <v>0.8340621112205682</v>
       </c>
       <c r="E51" t="n">
-        <v>0.5210575531203353</v>
+        <v>0.6956596053737114</v>
       </c>
     </row>
     <row r="52">
@@ -1318,11 +1318,11 @@
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.6918761771196742</v>
+        <v>-1.908077084219183</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="n">
-        <v>6.625964181312612</v>
+        <v>4.310722764377764</v>
       </c>
     </row>
     <row r="53">
@@ -1335,7 +1335,7 @@
       <c r="C53" t="inlineStr"/>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="n">
-        <v>0.1325192836262522</v>
+        <v>0.08621445528755528</v>
       </c>
     </row>
   </sheetData>
